--- a/kvision/ksample/mytable/BaiduOCRConverter_Excel/014_0e3a2.xlsx
+++ b/kvision/ksample/mytable/BaiduOCRConverter_Excel/014_0e3a2.xlsx
@@ -39,7 +39,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -61,11 +61,69 @@
         <color rgb="00FF0000"/>
       </bottom>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thick">
+        <color rgb="00FF0000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color rgb="00FF0000"/>
+      </right>
+      <top style="thick">
+        <color rgb="00FF0000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thick">
+        <color rgb="00FF0000"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="00FF0000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color rgb="00FF0000"/>
+      </right>
+      <top style="thick">
+        <color rgb="00FF0000"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="00FF0000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="00000000"/>
+      </left>
+      <right style="thick">
+        <color rgb="00000000"/>
+      </right>
+      <top style="thick">
+        <color rgb="00000000"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="00000000"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
@@ -74,6 +132,10 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -448,486 +510,486 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="2" t="inlineStr">
+      <c r="A1" s="4" t="inlineStr">
         <is>
           <t>P.O. 1534 REV.19/79PURCHASINGPURCHASE REQUISITIONLT-10-79STATIONARYPLEASE INCLUDE ONLY ONE TYPE OF MATERIAL ON THIS REQUISITION</t>
         </is>
       </c>
-      <c r="B1" s="3" t="n"/>
-      <c r="C1" s="3" t="n"/>
-      <c r="D1" s="3" t="n"/>
-      <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="n"/>
-      <c r="G1" s="2" t="inlineStr">
+      <c r="B1" s="5" t="n"/>
+      <c r="C1" s="5" t="n"/>
+      <c r="D1" s="5" t="n"/>
+      <c r="E1" s="5" t="n"/>
+      <c r="F1" s="5" t="n"/>
+      <c r="G1" s="4" t="inlineStr">
         <is>
           <t>DATEApril 19， 1988</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
+      <c r="H1" s="5" t="n"/>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="inlineStr">
+      <c r="A2" s="4" t="inlineStr">
         <is>
           <t>VENDORFOR PURCHASING DEPARTMENT USE ONLYPiedmont Research Laboratory 2748 Patterson Ave., Greensboro,N</t>
         </is>
       </c>
-      <c r="B2" s="3" t="n"/>
-      <c r="C2" s="3" t="n"/>
-      <c r="D2" s="3" t="n"/>
-      <c r="E2" s="3" t="n"/>
-      <c r="F2" s="3" t="n"/>
-      <c r="G2" s="2" t="inlineStr">
+      <c r="B2" s="5" t="n"/>
+      <c r="C2" s="5" t="n"/>
+      <c r="D2" s="5" t="n"/>
+      <c r="E2" s="5" t="n"/>
+      <c r="F2" s="5" t="n"/>
+      <c r="G2" s="4" t="inlineStr">
         <is>
           <t>ORDER NO.C</t>
         </is>
       </c>
-      <c r="H2" s="3" t="n"/>
+      <c r="H2" s="5" t="n"/>
     </row>
     <row r="3">
-      <c r="A3" s="2" t="inlineStr">
+      <c r="A3" s="4" t="inlineStr">
         <is>
           <t>27407NET 15N/ATERMSN/AF.O.B.VIA</t>
         </is>
       </c>
-      <c r="B3" s="3" t="n"/>
-      <c r="C3" s="3" t="n"/>
-      <c r="D3" s="3" t="n"/>
-      <c r="E3" s="3" t="n"/>
-      <c r="F3" s="3" t="n"/>
-      <c r="G3" s="2" t="inlineStr">
+      <c r="B3" s="5" t="n"/>
+      <c r="C3" s="5" t="n"/>
+      <c r="D3" s="5" t="n"/>
+      <c r="E3" s="5" t="n"/>
+      <c r="F3" s="5" t="n"/>
+      <c r="G3" s="4" t="inlineStr">
         <is>
           <t>Prev. or Recommended Suppller</t>
         </is>
       </c>
-      <c r="H3" s="3" t="n"/>
+      <c r="H3" s="5" t="n"/>
     </row>
     <row r="4">
-      <c r="A4" s="2" t="inlineStr">
+      <c r="A4" s="4" t="inlineStr">
         <is>
           <t>SHIP TO (DEPT., BRANCH)Lorillard Research CenterN. A. Thaggard</t>
         </is>
       </c>
-      <c r="B4" s="3" t="n"/>
-      <c r="C4" s="3" t="n"/>
-      <c r="D4" s="3" t="n"/>
-      <c r="E4" s="3" t="n"/>
-      <c r="F4" s="2" t="inlineStr">
+      <c r="B4" s="5" t="n"/>
+      <c r="C4" s="5" t="n"/>
+      <c r="D4" s="5" t="n"/>
+      <c r="E4" s="5" t="n"/>
+      <c r="F4" s="4" t="inlineStr">
         <is>
           <t>DATE WANTEDAs required</t>
         </is>
       </c>
-      <c r="G4" s="3" t="n"/>
-      <c r="H4" s="3" t="n"/>
+      <c r="G4" s="5" t="n"/>
+      <c r="H4" s="5" t="n"/>
     </row>
     <row r="5">
-      <c r="A5" s="2" t="inlineStr">
+      <c r="A5" s="4" t="inlineStr">
         <is>
           <t>420 English St., Greensboro, NC 27405</t>
         </is>
       </c>
-      <c r="B5" s="3" t="n"/>
-      <c r="C5" s="3" t="n"/>
-      <c r="D5" s="3" t="n"/>
-      <c r="E5" s="3" t="n"/>
-      <c r="F5" s="3" t="n"/>
-      <c r="G5" s="3" t="n"/>
-      <c r="H5" s="3" t="n"/>
+      <c r="B5" s="5" t="n"/>
+      <c r="C5" s="5" t="n"/>
+      <c r="D5" s="5" t="n"/>
+      <c r="E5" s="5" t="n"/>
+      <c r="F5" s="5" t="n"/>
+      <c r="G5" s="5" t="n"/>
+      <c r="H5" s="5" t="n"/>
     </row>
     <row r="6">
-      <c r="A6" s="2" t="inlineStr">
+      <c r="A6" s="4" t="inlineStr">
         <is>
           <t>QUANTITY</t>
         </is>
       </c>
-      <c r="B6" s="2" t="inlineStr">
+      <c r="B6" s="4" t="inlineStr">
         <is>
           <t>CODE</t>
         </is>
       </c>
-      <c r="C6" s="2" t="inlineStr">
+      <c r="C6" s="4" t="inlineStr">
         <is>
           <t>DESCRIPTION</t>
         </is>
       </c>
-      <c r="D6" s="3" t="n"/>
-      <c r="E6" s="3" t="n"/>
-      <c r="F6" s="3" t="n"/>
-      <c r="G6" s="3" t="n"/>
-      <c r="H6" s="2" t="inlineStr">
+      <c r="D6" s="5" t="n"/>
+      <c r="E6" s="5" t="n"/>
+      <c r="F6" s="5" t="n"/>
+      <c r="G6" s="5" t="n"/>
+      <c r="H6" s="4" t="inlineStr">
         <is>
           <t>UNIT PRICE</t>
         </is>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="2" t="n"/>
-      <c r="B7" s="2" t="inlineStr">
+      <c r="A7" s="4" t="n"/>
+      <c r="B7" s="4" t="inlineStr">
         <is>
           <t>This is your</t>
         </is>
       </c>
-      <c r="C7" s="2" t="inlineStr">
+      <c r="C7" s="4" t="inlineStr">
         <is>
           <t>authoxization to prepare cigarette smoke con</t>
         </is>
       </c>
-      <c r="D7" s="3" t="n"/>
-      <c r="E7" s="3" t="n"/>
-      <c r="F7" s="3" t="n"/>
-      <c r="G7" s="3" t="n"/>
-      <c r="H7" s="2" t="inlineStr">
+      <c r="D7" s="5" t="n"/>
+      <c r="E7" s="5" t="n"/>
+      <c r="F7" s="5" t="n"/>
+      <c r="G7" s="5" t="n"/>
+      <c r="H7" s="4" t="inlineStr">
         <is>
           <t>densate</t>
         </is>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="2" t="n"/>
-      <c r="B8" s="2" t="inlineStr">
+      <c r="A8" s="4" t="n"/>
+      <c r="B8" s="4" t="inlineStr">
         <is>
           <t>according to</t>
         </is>
       </c>
-      <c r="C8" s="2" t="inlineStr">
+      <c r="C8" s="4" t="inlineStr">
         <is>
           <t>the protocol "Standard Operating Procedure for the</t>
         </is>
       </c>
-      <c r="D8" s="3" t="n"/>
-      <c r="E8" s="3" t="n"/>
-      <c r="F8" s="3" t="n"/>
-      <c r="G8" s="3" t="n"/>
-      <c r="H8" s="3" t="n"/>
+      <c r="D8" s="5" t="n"/>
+      <c r="E8" s="5" t="n"/>
+      <c r="F8" s="5" t="n"/>
+      <c r="G8" s="5" t="n"/>
+      <c r="H8" s="5" t="n"/>
     </row>
     <row r="9">
-      <c r="A9" s="2" t="n"/>
-      <c r="B9" s="2" t="inlineStr">
+      <c r="A9" s="4" t="n"/>
+      <c r="B9" s="4" t="inlineStr">
         <is>
           <t>Preparation</t>
         </is>
       </c>
-      <c r="C9" s="2" t="inlineStr">
+      <c r="C9" s="4" t="inlineStr">
         <is>
           <t>of Smoke Condensate for Mouse Skin Bioassay,"</t>
         </is>
       </c>
-      <c r="D9" s="3" t="n"/>
-      <c r="E9" s="3" t="n"/>
-      <c r="F9" s="3" t="n"/>
-      <c r="G9" s="3" t="n"/>
-      <c r="H9" s="2" t="inlineStr">
+      <c r="D9" s="5" t="n"/>
+      <c r="E9" s="5" t="n"/>
+      <c r="F9" s="5" t="n"/>
+      <c r="G9" s="5" t="n"/>
+      <c r="H9" s="4" t="inlineStr">
         <is>
           <t>for the</t>
         </is>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="2" t="n"/>
-      <c r="B10" s="2" t="inlineStr">
+      <c r="A10" s="4" t="n"/>
+      <c r="B10" s="4" t="inlineStr">
         <is>
           <t>period April</t>
         </is>
       </c>
-      <c r="C10" s="2" t="inlineStr">
+      <c r="C10" s="4" t="inlineStr">
         <is>
           <t>1, 1988 through December 31， 1988。 Condensa</t>
         </is>
       </c>
-      <c r="D10" s="3" t="n"/>
-      <c r="E10" s="3" t="n"/>
-      <c r="F10" s="3" t="n"/>
-      <c r="G10" s="3" t="n"/>
-      <c r="H10" s="2" t="inlineStr">
+      <c r="D10" s="5" t="n"/>
+      <c r="E10" s="5" t="n"/>
+      <c r="F10" s="5" t="n"/>
+      <c r="G10" s="5" t="n"/>
+      <c r="H10" s="4" t="inlineStr">
         <is>
           <t>e will be</t>
         </is>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="2" t="n"/>
-      <c r="B11" s="2" t="inlineStr">
+      <c r="A11" s="4" t="n"/>
+      <c r="B11" s="4" t="inlineStr">
         <is>
           <t>prepared aco</t>
         </is>
       </c>
-      <c r="C11" s="2" t="inlineStr">
+      <c r="C11" s="4" t="inlineStr">
         <is>
           <t>ording to a time schedule provided by Lorilla</t>
         </is>
       </c>
-      <c r="D11" s="3" t="n"/>
-      <c r="E11" s="3" t="n"/>
-      <c r="F11" s="3" t="n"/>
-      <c r="G11" s="3" t="n"/>
-      <c r="H11" s="2" t="inlineStr">
+      <c r="D11" s="5" t="n"/>
+      <c r="E11" s="5" t="n"/>
+      <c r="F11" s="5" t="n"/>
+      <c r="G11" s="5" t="n"/>
+      <c r="H11" s="4" t="inlineStr">
         <is>
           <t>rd. The</t>
         </is>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="2" t="n"/>
-      <c r="B12" s="2" t="inlineStr">
+      <c r="A12" s="4" t="n"/>
+      <c r="B12" s="4" t="inlineStr">
         <is>
           <t>fixed price</t>
         </is>
       </c>
-      <c r="C12" s="2" t="inlineStr">
+      <c r="C12" s="4" t="inlineStr">
         <is>
           <t>for condensate collection will be at a rate o</t>
         </is>
       </c>
-      <c r="D12" s="3" t="n"/>
-      <c r="E12" s="3" t="n"/>
-      <c r="F12" s="3" t="n"/>
-      <c r="G12" s="3" t="n"/>
-      <c r="H12" s="2" t="n"/>
+      <c r="D12" s="5" t="n"/>
+      <c r="E12" s="5" t="n"/>
+      <c r="F12" s="5" t="n"/>
+      <c r="G12" s="5" t="n"/>
+      <c r="H12" s="4" t="n"/>
     </row>
     <row r="13">
-      <c r="A13" s="2" t="n"/>
-      <c r="B13" s="2" t="inlineStr">
+      <c r="A13" s="4" t="n"/>
+      <c r="B13" s="4" t="inlineStr">
         <is>
           <t>$1,750/10,00</t>
         </is>
       </c>
-      <c r="C13" s="2" t="inlineStr">
+      <c r="C13" s="4" t="inlineStr">
         <is>
           <t>0 cigarettes smoked. Piedmont will pay the c</t>
         </is>
       </c>
-      <c r="D13" s="3" t="n"/>
-      <c r="E13" s="3" t="n"/>
-      <c r="F13" s="3" t="n"/>
-      <c r="G13" s="3" t="n"/>
-      <c r="H13" s="2" t="inlineStr">
+      <c r="D13" s="5" t="n"/>
+      <c r="E13" s="5" t="n"/>
+      <c r="F13" s="5" t="n"/>
+      <c r="G13" s="5" t="n"/>
+      <c r="H13" s="4" t="inlineStr">
         <is>
           <t>ost of</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="2" t="n"/>
-      <c r="B14" s="2" t="inlineStr">
+      <c r="A14" s="4" t="n"/>
+      <c r="B14" s="4" t="inlineStr">
         <is>
           <t>consumable</t>
         </is>
       </c>
-      <c r="C14" s="2" t="inlineStr">
+      <c r="C14" s="4" t="inlineStr">
         <is>
           <t>upplies. This work is to be conducted in acc</t>
         </is>
       </c>
-      <c r="D14" s="3" t="n"/>
-      <c r="E14" s="3" t="n"/>
-      <c r="F14" s="3" t="n"/>
-      <c r="G14" s="3" t="n"/>
-      <c r="H14" s="2" t="inlineStr">
+      <c r="D14" s="5" t="n"/>
+      <c r="E14" s="5" t="n"/>
+      <c r="F14" s="5" t="n"/>
+      <c r="G14" s="5" t="n"/>
+      <c r="H14" s="4" t="inlineStr">
         <is>
           <t>ordance</t>
         </is>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="2" t="n"/>
-      <c r="B15" s="2" t="inlineStr">
+      <c r="A15" s="4" t="n"/>
+      <c r="B15" s="4" t="inlineStr">
         <is>
           <t>with the Ded</t>
         </is>
       </c>
-      <c r="C15" s="2" t="inlineStr">
+      <c r="C15" s="4" t="inlineStr">
         <is>
           <t>ember 10， 1984 formal agreement between Piedm</t>
         </is>
       </c>
-      <c r="D15" s="3" t="n"/>
-      <c r="E15" s="3" t="n"/>
-      <c r="F15" s="3" t="n"/>
-      <c r="G15" s="3" t="n"/>
-      <c r="H15" s="2" t="inlineStr">
+      <c r="D15" s="5" t="n"/>
+      <c r="E15" s="5" t="n"/>
+      <c r="F15" s="5" t="n"/>
+      <c r="G15" s="5" t="n"/>
+      <c r="H15" s="4" t="inlineStr">
         <is>
           <t>nt Reseach</t>
         </is>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="2" t="n"/>
-      <c r="B16" s="2" t="inlineStr">
+      <c r="A16" s="4" t="n"/>
+      <c r="B16" s="4" t="inlineStr">
         <is>
           <t>Laboratories</t>
         </is>
       </c>
-      <c r="C16" s="2" t="inlineStr">
+      <c r="C16" s="4" t="inlineStr">
         <is>
           <t>and Lorillard. All work is to be coordinate</t>
         </is>
       </c>
-      <c r="D16" s="3" t="n"/>
-      <c r="E16" s="3" t="n"/>
-      <c r="F16" s="3" t="n"/>
-      <c r="G16" s="3" t="n"/>
-      <c r="H16" s="2" t="inlineStr">
+      <c r="D16" s="5" t="n"/>
+      <c r="E16" s="5" t="n"/>
+      <c r="F16" s="5" t="n"/>
+      <c r="G16" s="5" t="n"/>
+      <c r="H16" s="4" t="inlineStr">
         <is>
           <t>with our</t>
         </is>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="2" t="n"/>
-      <c r="B17" s="2" t="inlineStr">
+      <c r="A17" s="4" t="n"/>
+      <c r="B17" s="4" t="inlineStr">
         <is>
           <t>Mr. Neil Tha</t>
         </is>
       </c>
-      <c r="C17" s="2" t="inlineStr">
+      <c r="C17" s="4" t="inlineStr">
         <is>
           <t>ggard (919) 373-6628。</t>
         </is>
       </c>
-      <c r="D17" s="3" t="n"/>
-      <c r="E17" s="3" t="n"/>
-      <c r="F17" s="3" t="n"/>
-      <c r="G17" s="3" t="n"/>
-      <c r="H17" s="2" t="n"/>
+      <c r="D17" s="5" t="n"/>
+      <c r="E17" s="5" t="n"/>
+      <c r="F17" s="5" t="n"/>
+      <c r="G17" s="5" t="n"/>
+      <c r="H17" s="4" t="n"/>
     </row>
     <row r="18">
-      <c r="A18" s="2" t="n"/>
-      <c r="B18" s="2" t="n"/>
-      <c r="C18" s="2" t="n"/>
-      <c r="D18" s="3" t="n"/>
-      <c r="E18" s="3" t="n"/>
-      <c r="F18" s="3" t="n"/>
-      <c r="G18" s="3" t="n"/>
-      <c r="H18" s="2" t="n"/>
+      <c r="A18" s="4" t="n"/>
+      <c r="B18" s="4" t="n"/>
+      <c r="C18" s="4" t="n"/>
+      <c r="D18" s="5" t="n"/>
+      <c r="E18" s="5" t="n"/>
+      <c r="F18" s="5" t="n"/>
+      <c r="G18" s="5" t="n"/>
+      <c r="H18" s="4" t="n"/>
     </row>
     <row r="19">
-      <c r="A19" s="2" t="n"/>
-      <c r="B19" s="2" t="n"/>
-      <c r="C19" s="2" t="n"/>
-      <c r="D19" s="3" t="n"/>
-      <c r="E19" s="3" t="n"/>
-      <c r="F19" s="3" t="n"/>
-      <c r="G19" s="3" t="n"/>
-      <c r="H19" s="2" t="n"/>
+      <c r="A19" s="4" t="n"/>
+      <c r="B19" s="4" t="n"/>
+      <c r="C19" s="4" t="n"/>
+      <c r="D19" s="5" t="n"/>
+      <c r="E19" s="5" t="n"/>
+      <c r="F19" s="5" t="n"/>
+      <c r="G19" s="5" t="n"/>
+      <c r="H19" s="4" t="n"/>
     </row>
     <row r="20">
-      <c r="A20" s="2" t="n"/>
-      <c r="B20" s="2" t="n"/>
-      <c r="C20" s="2" t="n"/>
-      <c r="D20" s="3" t="n"/>
-      <c r="E20" s="3" t="n"/>
-      <c r="F20" s="3" t="n"/>
-      <c r="G20" s="3" t="n"/>
-      <c r="H20" s="2" t="n"/>
+      <c r="A20" s="4" t="n"/>
+      <c r="B20" s="4" t="n"/>
+      <c r="C20" s="4" t="n"/>
+      <c r="D20" s="5" t="n"/>
+      <c r="E20" s="5" t="n"/>
+      <c r="F20" s="5" t="n"/>
+      <c r="G20" s="5" t="n"/>
+      <c r="H20" s="4" t="n"/>
     </row>
     <row r="21">
-      <c r="A21" s="2" t="n"/>
-      <c r="B21" s="2" t="n"/>
-      <c r="C21" s="2" t="n"/>
-      <c r="D21" s="3" t="n"/>
-      <c r="E21" s="3" t="n"/>
-      <c r="F21" s="3" t="n"/>
-      <c r="G21" s="3" t="n"/>
-      <c r="H21" s="2" t="n"/>
+      <c r="A21" s="4" t="n"/>
+      <c r="B21" s="4" t="n"/>
+      <c r="C21" s="4" t="n"/>
+      <c r="D21" s="5" t="n"/>
+      <c r="E21" s="5" t="n"/>
+      <c r="F21" s="5" t="n"/>
+      <c r="G21" s="5" t="n"/>
+      <c r="H21" s="4" t="n"/>
     </row>
     <row r="22">
-      <c r="A22" s="2" t="n"/>
-      <c r="B22" s="3" t="n"/>
-      <c r="C22" s="3" t="n"/>
-      <c r="D22" s="3" t="n"/>
-      <c r="E22" s="3" t="n"/>
-      <c r="F22" s="3" t="n"/>
-      <c r="G22" s="3" t="n"/>
-      <c r="H22" s="3" t="n"/>
+      <c r="A22" s="4" t="n"/>
+      <c r="B22" s="5" t="n"/>
+      <c r="C22" s="5" t="n"/>
+      <c r="D22" s="5" t="n"/>
+      <c r="E22" s="5" t="n"/>
+      <c r="F22" s="5" t="n"/>
+      <c r="G22" s="5" t="n"/>
+      <c r="H22" s="5" t="n"/>
     </row>
     <row r="23">
-      <c r="A23" s="2" t="inlineStr">
+      <c r="A23" s="4" t="inlineStr">
         <is>
           <t>FOLLOW UP DATE</t>
         </is>
       </c>
-      <c r="B23" s="3" t="n"/>
-      <c r="C23" s="3" t="n"/>
-      <c r="D23" s="2" t="inlineStr">
+      <c r="B23" s="5" t="n"/>
+      <c r="C23" s="5" t="n"/>
+      <c r="D23" s="4" t="inlineStr">
         <is>
           <t>REQUISITION NO.</t>
         </is>
       </c>
-      <c r="E23" s="3" t="n"/>
-      <c r="F23" s="2" t="inlineStr">
+      <c r="E23" s="5" t="n"/>
+      <c r="F23" s="4" t="inlineStr">
         <is>
           <t>ISSUED BY</t>
         </is>
       </c>
-      <c r="G23" s="3" t="n"/>
-      <c r="H23" s="3" t="n"/>
+      <c r="G23" s="5" t="n"/>
+      <c r="H23" s="5" t="n"/>
     </row>
     <row r="24">
-      <c r="A24" s="2" t="n"/>
-      <c r="B24" s="3" t="n"/>
-      <c r="C24" s="3" t="n"/>
-      <c r="D24" s="2" t="n"/>
-      <c r="E24" s="3" t="n"/>
-      <c r="F24" s="2" t="n"/>
-      <c r="G24" s="3" t="n"/>
-      <c r="H24" s="3" t="n"/>
+      <c r="A24" s="4" t="n"/>
+      <c r="B24" s="5" t="n"/>
+      <c r="C24" s="5" t="n"/>
+      <c r="D24" s="4" t="n"/>
+      <c r="E24" s="5" t="n"/>
+      <c r="F24" s="4" t="n"/>
+      <c r="G24" s="5" t="n"/>
+      <c r="H24" s="5" t="n"/>
     </row>
     <row r="25">
-      <c r="A25" s="2" t="inlineStr">
+      <c r="A25" s="4" t="inlineStr">
         <is>
           <t>BUDGET NO.</t>
         </is>
       </c>
-      <c r="B25" s="3" t="n"/>
-      <c r="C25" s="3" t="n"/>
-      <c r="D25" s="2" t="inlineStr">
+      <c r="B25" s="5" t="n"/>
+      <c r="C25" s="5" t="n"/>
+      <c r="D25" s="4" t="inlineStr">
         <is>
           <t>ACCT. NO.</t>
         </is>
       </c>
-      <c r="E25" s="2" t="inlineStr">
+      <c r="E25" s="4" t="inlineStr">
         <is>
           <t>DEPT. NO.</t>
         </is>
       </c>
-      <c r="F25" s="2" t="inlineStr">
+      <c r="F25" s="4" t="inlineStr">
         <is>
           <t>APPROVED BY</t>
         </is>
       </c>
-      <c r="G25" s="3" t="n"/>
-      <c r="H25" s="3" t="n"/>
+      <c r="G25" s="5" t="n"/>
+      <c r="H25" s="5" t="n"/>
     </row>
     <row r="26">
-      <c r="A26" s="2" t="n"/>
-      <c r="B26" s="3" t="n"/>
-      <c r="C26" s="3" t="n"/>
-      <c r="D26" s="2" t="inlineStr">
+      <c r="A26" s="4" t="n"/>
+      <c r="B26" s="5" t="n"/>
+      <c r="C26" s="5" t="n"/>
+      <c r="D26" s="4" t="inlineStr">
         <is>
           <t>4111</t>
         </is>
       </c>
-      <c r="E26" s="2" t="inlineStr">
+      <c r="E26" s="4" t="inlineStr">
         <is>
           <t>8700</t>
         </is>
       </c>
-      <c r="F26" s="2" t="n"/>
-      <c r="G26" s="3" t="n"/>
-      <c r="H26" s="3" t="n"/>
+      <c r="F26" s="4" t="n"/>
+      <c r="G26" s="5" t="n"/>
+      <c r="H26" s="5" t="n"/>
     </row>
     <row r="27">
-      <c r="A27" s="3" t="inlineStr">
+      <c r="A27" s="5" t="inlineStr">
         <is>
           <t>871A7607</t>
         </is>
       </c>
-      <c r="B27" s="3" t="n"/>
-      <c r="C27" s="3" t="n"/>
-      <c r="D27" s="3" t="n"/>
-      <c r="E27" s="3" t="n"/>
-      <c r="F27" s="3" t="n"/>
-      <c r="G27" s="3" t="n"/>
-      <c r="H27" s="3" t="n"/>
+      <c r="B27" s="5" t="n"/>
+      <c r="C27" s="5" t="n"/>
+      <c r="D27" s="5" t="n"/>
+      <c r="E27" s="5" t="n"/>
+      <c r="F27" s="5" t="n"/>
+      <c r="G27" s="5" t="n"/>
+      <c r="H27" s="5" t="n"/>
     </row>
   </sheetData>
   <mergeCells count="36">

--- a/kvision/ksample/mytable/BaiduOCRConverter_Excel/014_0e3a2.xlsx
+++ b/kvision/ksample/mytable/BaiduOCRConverter_Excel/014_0e3a2.xlsx
@@ -39,7 +39,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -119,11 +119,69 @@
         <color rgb="00000000"/>
       </bottom>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thick">
+        <color rgb="00000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color rgb="00000000"/>
+      </right>
+      <top style="thick">
+        <color rgb="00000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thick">
+        <color rgb="00000000"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="00000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color rgb="00000000"/>
+      </right>
+      <top style="thick">
+        <color rgb="00000000"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="00000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="00101010"/>
+      </left>
+      <right style="thin">
+        <color rgb="00101010"/>
+      </right>
+      <top style="thin">
+        <color rgb="00101010"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="00101010"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
@@ -136,6 +194,10 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -510,486 +572,486 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="4" t="inlineStr">
+      <c r="A1" s="6" t="inlineStr">
         <is>
           <t>P.O. 1534 REV.19/79PURCHASINGPURCHASE REQUISITIONLT-10-79STATIONARYPLEASE INCLUDE ONLY ONE TYPE OF MATERIAL ON THIS REQUISITION</t>
         </is>
       </c>
-      <c r="B1" s="5" t="n"/>
-      <c r="C1" s="5" t="n"/>
-      <c r="D1" s="5" t="n"/>
-      <c r="E1" s="5" t="n"/>
-      <c r="F1" s="5" t="n"/>
-      <c r="G1" s="4" t="inlineStr">
+      <c r="B1" s="7" t="n"/>
+      <c r="C1" s="7" t="n"/>
+      <c r="D1" s="7" t="n"/>
+      <c r="E1" s="7" t="n"/>
+      <c r="F1" s="7" t="n"/>
+      <c r="G1" s="6" t="inlineStr">
         <is>
           <t>DATEApril 19， 1988</t>
         </is>
       </c>
-      <c r="H1" s="5" t="n"/>
+      <c r="H1" s="7" t="n"/>
     </row>
     <row r="2">
-      <c r="A2" s="4" t="inlineStr">
+      <c r="A2" s="6" t="inlineStr">
         <is>
           <t>VENDORFOR PURCHASING DEPARTMENT USE ONLYPiedmont Research Laboratory 2748 Patterson Ave., Greensboro,N</t>
         </is>
       </c>
-      <c r="B2" s="5" t="n"/>
-      <c r="C2" s="5" t="n"/>
-      <c r="D2" s="5" t="n"/>
-      <c r="E2" s="5" t="n"/>
-      <c r="F2" s="5" t="n"/>
-      <c r="G2" s="4" t="inlineStr">
+      <c r="B2" s="7" t="n"/>
+      <c r="C2" s="7" t="n"/>
+      <c r="D2" s="7" t="n"/>
+      <c r="E2" s="7" t="n"/>
+      <c r="F2" s="7" t="n"/>
+      <c r="G2" s="6" t="inlineStr">
         <is>
           <t>ORDER NO.C</t>
         </is>
       </c>
-      <c r="H2" s="5" t="n"/>
+      <c r="H2" s="7" t="n"/>
     </row>
     <row r="3">
-      <c r="A3" s="4" t="inlineStr">
+      <c r="A3" s="6" t="inlineStr">
         <is>
           <t>27407NET 15N/ATERMSN/AF.O.B.VIA</t>
         </is>
       </c>
-      <c r="B3" s="5" t="n"/>
-      <c r="C3" s="5" t="n"/>
-      <c r="D3" s="5" t="n"/>
-      <c r="E3" s="5" t="n"/>
-      <c r="F3" s="5" t="n"/>
-      <c r="G3" s="4" t="inlineStr">
+      <c r="B3" s="7" t="n"/>
+      <c r="C3" s="7" t="n"/>
+      <c r="D3" s="7" t="n"/>
+      <c r="E3" s="7" t="n"/>
+      <c r="F3" s="7" t="n"/>
+      <c r="G3" s="6" t="inlineStr">
         <is>
           <t>Prev. or Recommended Suppller</t>
         </is>
       </c>
-      <c r="H3" s="5" t="n"/>
+      <c r="H3" s="7" t="n"/>
     </row>
     <row r="4">
-      <c r="A4" s="4" t="inlineStr">
+      <c r="A4" s="6" t="inlineStr">
         <is>
           <t>SHIP TO (DEPT., BRANCH)Lorillard Research CenterN. A. Thaggard</t>
         </is>
       </c>
-      <c r="B4" s="5" t="n"/>
-      <c r="C4" s="5" t="n"/>
-      <c r="D4" s="5" t="n"/>
-      <c r="E4" s="5" t="n"/>
-      <c r="F4" s="4" t="inlineStr">
+      <c r="B4" s="7" t="n"/>
+      <c r="C4" s="7" t="n"/>
+      <c r="D4" s="7" t="n"/>
+      <c r="E4" s="7" t="n"/>
+      <c r="F4" s="6" t="inlineStr">
         <is>
           <t>DATE WANTEDAs required</t>
         </is>
       </c>
-      <c r="G4" s="5" t="n"/>
-      <c r="H4" s="5" t="n"/>
+      <c r="G4" s="7" t="n"/>
+      <c r="H4" s="7" t="n"/>
     </row>
     <row r="5">
-      <c r="A5" s="4" t="inlineStr">
+      <c r="A5" s="6" t="inlineStr">
         <is>
           <t>420 English St., Greensboro, NC 27405</t>
         </is>
       </c>
-      <c r="B5" s="5" t="n"/>
-      <c r="C5" s="5" t="n"/>
-      <c r="D5" s="5" t="n"/>
-      <c r="E5" s="5" t="n"/>
-      <c r="F5" s="5" t="n"/>
-      <c r="G5" s="5" t="n"/>
-      <c r="H5" s="5" t="n"/>
+      <c r="B5" s="7" t="n"/>
+      <c r="C5" s="7" t="n"/>
+      <c r="D5" s="7" t="n"/>
+      <c r="E5" s="7" t="n"/>
+      <c r="F5" s="7" t="n"/>
+      <c r="G5" s="7" t="n"/>
+      <c r="H5" s="7" t="n"/>
     </row>
     <row r="6">
-      <c r="A6" s="4" t="inlineStr">
+      <c r="A6" s="6" t="inlineStr">
         <is>
           <t>QUANTITY</t>
         </is>
       </c>
-      <c r="B6" s="4" t="inlineStr">
+      <c r="B6" s="6" t="inlineStr">
         <is>
           <t>CODE</t>
         </is>
       </c>
-      <c r="C6" s="4" t="inlineStr">
+      <c r="C6" s="6" t="inlineStr">
         <is>
           <t>DESCRIPTION</t>
         </is>
       </c>
-      <c r="D6" s="5" t="n"/>
-      <c r="E6" s="5" t="n"/>
-      <c r="F6" s="5" t="n"/>
-      <c r="G6" s="5" t="n"/>
-      <c r="H6" s="4" t="inlineStr">
+      <c r="D6" s="7" t="n"/>
+      <c r="E6" s="7" t="n"/>
+      <c r="F6" s="7" t="n"/>
+      <c r="G6" s="7" t="n"/>
+      <c r="H6" s="6" t="inlineStr">
         <is>
           <t>UNIT PRICE</t>
         </is>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="4" t="n"/>
-      <c r="B7" s="4" t="inlineStr">
+      <c r="A7" s="6" t="n"/>
+      <c r="B7" s="6" t="inlineStr">
         <is>
           <t>This is your</t>
         </is>
       </c>
-      <c r="C7" s="4" t="inlineStr">
+      <c r="C7" s="6" t="inlineStr">
         <is>
           <t>authoxization to prepare cigarette smoke con</t>
         </is>
       </c>
-      <c r="D7" s="5" t="n"/>
-      <c r="E7" s="5" t="n"/>
-      <c r="F7" s="5" t="n"/>
-      <c r="G7" s="5" t="n"/>
-      <c r="H7" s="4" t="inlineStr">
+      <c r="D7" s="7" t="n"/>
+      <c r="E7" s="7" t="n"/>
+      <c r="F7" s="7" t="n"/>
+      <c r="G7" s="7" t="n"/>
+      <c r="H7" s="6" t="inlineStr">
         <is>
           <t>densate</t>
         </is>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="4" t="n"/>
-      <c r="B8" s="4" t="inlineStr">
+      <c r="A8" s="6" t="n"/>
+      <c r="B8" s="6" t="inlineStr">
         <is>
           <t>according to</t>
         </is>
       </c>
-      <c r="C8" s="4" t="inlineStr">
+      <c r="C8" s="6" t="inlineStr">
         <is>
           <t>the protocol "Standard Operating Procedure for the</t>
         </is>
       </c>
-      <c r="D8" s="5" t="n"/>
-      <c r="E8" s="5" t="n"/>
-      <c r="F8" s="5" t="n"/>
-      <c r="G8" s="5" t="n"/>
-      <c r="H8" s="5" t="n"/>
+      <c r="D8" s="7" t="n"/>
+      <c r="E8" s="7" t="n"/>
+      <c r="F8" s="7" t="n"/>
+      <c r="G8" s="7" t="n"/>
+      <c r="H8" s="7" t="n"/>
     </row>
     <row r="9">
-      <c r="A9" s="4" t="n"/>
-      <c r="B9" s="4" t="inlineStr">
+      <c r="A9" s="6" t="n"/>
+      <c r="B9" s="6" t="inlineStr">
         <is>
           <t>Preparation</t>
         </is>
       </c>
-      <c r="C9" s="4" t="inlineStr">
+      <c r="C9" s="6" t="inlineStr">
         <is>
           <t>of Smoke Condensate for Mouse Skin Bioassay,"</t>
         </is>
       </c>
-      <c r="D9" s="5" t="n"/>
-      <c r="E9" s="5" t="n"/>
-      <c r="F9" s="5" t="n"/>
-      <c r="G9" s="5" t="n"/>
-      <c r="H9" s="4" t="inlineStr">
+      <c r="D9" s="7" t="n"/>
+      <c r="E9" s="7" t="n"/>
+      <c r="F9" s="7" t="n"/>
+      <c r="G9" s="7" t="n"/>
+      <c r="H9" s="6" t="inlineStr">
         <is>
           <t>for the</t>
         </is>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="4" t="n"/>
-      <c r="B10" s="4" t="inlineStr">
+      <c r="A10" s="6" t="n"/>
+      <c r="B10" s="6" t="inlineStr">
         <is>
           <t>period April</t>
         </is>
       </c>
-      <c r="C10" s="4" t="inlineStr">
+      <c r="C10" s="6" t="inlineStr">
         <is>
           <t>1, 1988 through December 31， 1988。 Condensa</t>
         </is>
       </c>
-      <c r="D10" s="5" t="n"/>
-      <c r="E10" s="5" t="n"/>
-      <c r="F10" s="5" t="n"/>
-      <c r="G10" s="5" t="n"/>
-      <c r="H10" s="4" t="inlineStr">
+      <c r="D10" s="7" t="n"/>
+      <c r="E10" s="7" t="n"/>
+      <c r="F10" s="7" t="n"/>
+      <c r="G10" s="7" t="n"/>
+      <c r="H10" s="6" t="inlineStr">
         <is>
           <t>e will be</t>
         </is>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="4" t="n"/>
-      <c r="B11" s="4" t="inlineStr">
+      <c r="A11" s="6" t="n"/>
+      <c r="B11" s="6" t="inlineStr">
         <is>
           <t>prepared aco</t>
         </is>
       </c>
-      <c r="C11" s="4" t="inlineStr">
+      <c r="C11" s="6" t="inlineStr">
         <is>
           <t>ording to a time schedule provided by Lorilla</t>
         </is>
       </c>
-      <c r="D11" s="5" t="n"/>
-      <c r="E11" s="5" t="n"/>
-      <c r="F11" s="5" t="n"/>
-      <c r="G11" s="5" t="n"/>
-      <c r="H11" s="4" t="inlineStr">
+      <c r="D11" s="7" t="n"/>
+      <c r="E11" s="7" t="n"/>
+      <c r="F11" s="7" t="n"/>
+      <c r="G11" s="7" t="n"/>
+      <c r="H11" s="6" t="inlineStr">
         <is>
           <t>rd. The</t>
         </is>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="4" t="n"/>
-      <c r="B12" s="4" t="inlineStr">
+      <c r="A12" s="6" t="n"/>
+      <c r="B12" s="6" t="inlineStr">
         <is>
           <t>fixed price</t>
         </is>
       </c>
-      <c r="C12" s="4" t="inlineStr">
+      <c r="C12" s="6" t="inlineStr">
         <is>
           <t>for condensate collection will be at a rate o</t>
         </is>
       </c>
-      <c r="D12" s="5" t="n"/>
-      <c r="E12" s="5" t="n"/>
-      <c r="F12" s="5" t="n"/>
-      <c r="G12" s="5" t="n"/>
-      <c r="H12" s="4" t="n"/>
+      <c r="D12" s="7" t="n"/>
+      <c r="E12" s="7" t="n"/>
+      <c r="F12" s="7" t="n"/>
+      <c r="G12" s="7" t="n"/>
+      <c r="H12" s="6" t="n"/>
     </row>
     <row r="13">
-      <c r="A13" s="4" t="n"/>
-      <c r="B13" s="4" t="inlineStr">
+      <c r="A13" s="6" t="n"/>
+      <c r="B13" s="6" t="inlineStr">
         <is>
           <t>$1,750/10,00</t>
         </is>
       </c>
-      <c r="C13" s="4" t="inlineStr">
+      <c r="C13" s="6" t="inlineStr">
         <is>
           <t>0 cigarettes smoked. Piedmont will pay the c</t>
         </is>
       </c>
-      <c r="D13" s="5" t="n"/>
-      <c r="E13" s="5" t="n"/>
-      <c r="F13" s="5" t="n"/>
-      <c r="G13" s="5" t="n"/>
-      <c r="H13" s="4" t="inlineStr">
+      <c r="D13" s="7" t="n"/>
+      <c r="E13" s="7" t="n"/>
+      <c r="F13" s="7" t="n"/>
+      <c r="G13" s="7" t="n"/>
+      <c r="H13" s="6" t="inlineStr">
         <is>
           <t>ost of</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="4" t="n"/>
-      <c r="B14" s="4" t="inlineStr">
+      <c r="A14" s="6" t="n"/>
+      <c r="B14" s="6" t="inlineStr">
         <is>
           <t>consumable</t>
         </is>
       </c>
-      <c r="C14" s="4" t="inlineStr">
+      <c r="C14" s="6" t="inlineStr">
         <is>
           <t>upplies. This work is to be conducted in acc</t>
         </is>
       </c>
-      <c r="D14" s="5" t="n"/>
-      <c r="E14" s="5" t="n"/>
-      <c r="F14" s="5" t="n"/>
-      <c r="G14" s="5" t="n"/>
-      <c r="H14" s="4" t="inlineStr">
+      <c r="D14" s="7" t="n"/>
+      <c r="E14" s="7" t="n"/>
+      <c r="F14" s="7" t="n"/>
+      <c r="G14" s="7" t="n"/>
+      <c r="H14" s="6" t="inlineStr">
         <is>
           <t>ordance</t>
         </is>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="4" t="n"/>
-      <c r="B15" s="4" t="inlineStr">
+      <c r="A15" s="6" t="n"/>
+      <c r="B15" s="6" t="inlineStr">
         <is>
           <t>with the Ded</t>
         </is>
       </c>
-      <c r="C15" s="4" t="inlineStr">
+      <c r="C15" s="6" t="inlineStr">
         <is>
           <t>ember 10， 1984 formal agreement between Piedm</t>
         </is>
       </c>
-      <c r="D15" s="5" t="n"/>
-      <c r="E15" s="5" t="n"/>
-      <c r="F15" s="5" t="n"/>
-      <c r="G15" s="5" t="n"/>
-      <c r="H15" s="4" t="inlineStr">
+      <c r="D15" s="7" t="n"/>
+      <c r="E15" s="7" t="n"/>
+      <c r="F15" s="7" t="n"/>
+      <c r="G15" s="7" t="n"/>
+      <c r="H15" s="6" t="inlineStr">
         <is>
           <t>nt Reseach</t>
         </is>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="4" t="n"/>
-      <c r="B16" s="4" t="inlineStr">
+      <c r="A16" s="6" t="n"/>
+      <c r="B16" s="6" t="inlineStr">
         <is>
           <t>Laboratories</t>
         </is>
       </c>
-      <c r="C16" s="4" t="inlineStr">
+      <c r="C16" s="6" t="inlineStr">
         <is>
           <t>and Lorillard. All work is to be coordinate</t>
         </is>
       </c>
-      <c r="D16" s="5" t="n"/>
-      <c r="E16" s="5" t="n"/>
-      <c r="F16" s="5" t="n"/>
-      <c r="G16" s="5" t="n"/>
-      <c r="H16" s="4" t="inlineStr">
+      <c r="D16" s="7" t="n"/>
+      <c r="E16" s="7" t="n"/>
+      <c r="F16" s="7" t="n"/>
+      <c r="G16" s="7" t="n"/>
+      <c r="H16" s="6" t="inlineStr">
         <is>
           <t>with our</t>
         </is>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="4" t="n"/>
-      <c r="B17" s="4" t="inlineStr">
+      <c r="A17" s="6" t="n"/>
+      <c r="B17" s="6" t="inlineStr">
         <is>
           <t>Mr. Neil Tha</t>
         </is>
       </c>
-      <c r="C17" s="4" t="inlineStr">
+      <c r="C17" s="6" t="inlineStr">
         <is>
           <t>ggard (919) 373-6628。</t>
         </is>
       </c>
-      <c r="D17" s="5" t="n"/>
-      <c r="E17" s="5" t="n"/>
-      <c r="F17" s="5" t="n"/>
-      <c r="G17" s="5" t="n"/>
-      <c r="H17" s="4" t="n"/>
+      <c r="D17" s="7" t="n"/>
+      <c r="E17" s="7" t="n"/>
+      <c r="F17" s="7" t="n"/>
+      <c r="G17" s="7" t="n"/>
+      <c r="H17" s="6" t="n"/>
     </row>
     <row r="18">
-      <c r="A18" s="4" t="n"/>
-      <c r="B18" s="4" t="n"/>
-      <c r="C18" s="4" t="n"/>
-      <c r="D18" s="5" t="n"/>
-      <c r="E18" s="5" t="n"/>
-      <c r="F18" s="5" t="n"/>
-      <c r="G18" s="5" t="n"/>
-      <c r="H18" s="4" t="n"/>
+      <c r="A18" s="6" t="n"/>
+      <c r="B18" s="6" t="n"/>
+      <c r="C18" s="6" t="n"/>
+      <c r="D18" s="7" t="n"/>
+      <c r="E18" s="7" t="n"/>
+      <c r="F18" s="7" t="n"/>
+      <c r="G18" s="7" t="n"/>
+      <c r="H18" s="6" t="n"/>
     </row>
     <row r="19">
-      <c r="A19" s="4" t="n"/>
-      <c r="B19" s="4" t="n"/>
-      <c r="C19" s="4" t="n"/>
-      <c r="D19" s="5" t="n"/>
-      <c r="E19" s="5" t="n"/>
-      <c r="F19" s="5" t="n"/>
-      <c r="G19" s="5" t="n"/>
-      <c r="H19" s="4" t="n"/>
+      <c r="A19" s="6" t="n"/>
+      <c r="B19" s="6" t="n"/>
+      <c r="C19" s="6" t="n"/>
+      <c r="D19" s="7" t="n"/>
+      <c r="E19" s="7" t="n"/>
+      <c r="F19" s="7" t="n"/>
+      <c r="G19" s="7" t="n"/>
+      <c r="H19" s="6" t="n"/>
     </row>
     <row r="20">
-      <c r="A20" s="4" t="n"/>
-      <c r="B20" s="4" t="n"/>
-      <c r="C20" s="4" t="n"/>
-      <c r="D20" s="5" t="n"/>
-      <c r="E20" s="5" t="n"/>
-      <c r="F20" s="5" t="n"/>
-      <c r="G20" s="5" t="n"/>
-      <c r="H20" s="4" t="n"/>
+      <c r="A20" s="6" t="n"/>
+      <c r="B20" s="6" t="n"/>
+      <c r="C20" s="6" t="n"/>
+      <c r="D20" s="7" t="n"/>
+      <c r="E20" s="7" t="n"/>
+      <c r="F20" s="7" t="n"/>
+      <c r="G20" s="7" t="n"/>
+      <c r="H20" s="6" t="n"/>
     </row>
     <row r="21">
-      <c r="A21" s="4" t="n"/>
-      <c r="B21" s="4" t="n"/>
-      <c r="C21" s="4" t="n"/>
-      <c r="D21" s="5" t="n"/>
-      <c r="E21" s="5" t="n"/>
-      <c r="F21" s="5" t="n"/>
-      <c r="G21" s="5" t="n"/>
-      <c r="H21" s="4" t="n"/>
+      <c r="A21" s="6" t="n"/>
+      <c r="B21" s="6" t="n"/>
+      <c r="C21" s="6" t="n"/>
+      <c r="D21" s="7" t="n"/>
+      <c r="E21" s="7" t="n"/>
+      <c r="F21" s="7" t="n"/>
+      <c r="G21" s="7" t="n"/>
+      <c r="H21" s="6" t="n"/>
     </row>
     <row r="22">
-      <c r="A22" s="4" t="n"/>
-      <c r="B22" s="5" t="n"/>
-      <c r="C22" s="5" t="n"/>
-      <c r="D22" s="5" t="n"/>
-      <c r="E22" s="5" t="n"/>
-      <c r="F22" s="5" t="n"/>
-      <c r="G22" s="5" t="n"/>
-      <c r="H22" s="5" t="n"/>
+      <c r="A22" s="6" t="n"/>
+      <c r="B22" s="7" t="n"/>
+      <c r="C22" s="7" t="n"/>
+      <c r="D22" s="7" t="n"/>
+      <c r="E22" s="7" t="n"/>
+      <c r="F22" s="7" t="n"/>
+      <c r="G22" s="7" t="n"/>
+      <c r="H22" s="7" t="n"/>
     </row>
     <row r="23">
-      <c r="A23" s="4" t="inlineStr">
+      <c r="A23" s="6" t="inlineStr">
         <is>
           <t>FOLLOW UP DATE</t>
         </is>
       </c>
-      <c r="B23" s="5" t="n"/>
-      <c r="C23" s="5" t="n"/>
-      <c r="D23" s="4" t="inlineStr">
+      <c r="B23" s="7" t="n"/>
+      <c r="C23" s="7" t="n"/>
+      <c r="D23" s="6" t="inlineStr">
         <is>
           <t>REQUISITION NO.</t>
         </is>
       </c>
-      <c r="E23" s="5" t="n"/>
-      <c r="F23" s="4" t="inlineStr">
+      <c r="E23" s="7" t="n"/>
+      <c r="F23" s="6" t="inlineStr">
         <is>
           <t>ISSUED BY</t>
         </is>
       </c>
-      <c r="G23" s="5" t="n"/>
-      <c r="H23" s="5" t="n"/>
+      <c r="G23" s="7" t="n"/>
+      <c r="H23" s="7" t="n"/>
     </row>
     <row r="24">
-      <c r="A24" s="4" t="n"/>
-      <c r="B24" s="5" t="n"/>
-      <c r="C24" s="5" t="n"/>
-      <c r="D24" s="4" t="n"/>
-      <c r="E24" s="5" t="n"/>
-      <c r="F24" s="4" t="n"/>
-      <c r="G24" s="5" t="n"/>
-      <c r="H24" s="5" t="n"/>
+      <c r="A24" s="6" t="n"/>
+      <c r="B24" s="7" t="n"/>
+      <c r="C24" s="7" t="n"/>
+      <c r="D24" s="6" t="n"/>
+      <c r="E24" s="7" t="n"/>
+      <c r="F24" s="6" t="n"/>
+      <c r="G24" s="7" t="n"/>
+      <c r="H24" s="7" t="n"/>
     </row>
     <row r="25">
-      <c r="A25" s="4" t="inlineStr">
+      <c r="A25" s="6" t="inlineStr">
         <is>
           <t>BUDGET NO.</t>
         </is>
       </c>
-      <c r="B25" s="5" t="n"/>
-      <c r="C25" s="5" t="n"/>
-      <c r="D25" s="4" t="inlineStr">
+      <c r="B25" s="7" t="n"/>
+      <c r="C25" s="7" t="n"/>
+      <c r="D25" s="6" t="inlineStr">
         <is>
           <t>ACCT. NO.</t>
         </is>
       </c>
-      <c r="E25" s="4" t="inlineStr">
+      <c r="E25" s="6" t="inlineStr">
         <is>
           <t>DEPT. NO.</t>
         </is>
       </c>
-      <c r="F25" s="4" t="inlineStr">
+      <c r="F25" s="6" t="inlineStr">
         <is>
           <t>APPROVED BY</t>
         </is>
       </c>
-      <c r="G25" s="5" t="n"/>
-      <c r="H25" s="5" t="n"/>
+      <c r="G25" s="7" t="n"/>
+      <c r="H25" s="7" t="n"/>
     </row>
     <row r="26">
-      <c r="A26" s="4" t="n"/>
-      <c r="B26" s="5" t="n"/>
-      <c r="C26" s="5" t="n"/>
-      <c r="D26" s="4" t="inlineStr">
+      <c r="A26" s="6" t="n"/>
+      <c r="B26" s="7" t="n"/>
+      <c r="C26" s="7" t="n"/>
+      <c r="D26" s="6" t="inlineStr">
         <is>
           <t>4111</t>
         </is>
       </c>
-      <c r="E26" s="4" t="inlineStr">
+      <c r="E26" s="6" t="inlineStr">
         <is>
           <t>8700</t>
         </is>
       </c>
-      <c r="F26" s="4" t="n"/>
-      <c r="G26" s="5" t="n"/>
-      <c r="H26" s="5" t="n"/>
+      <c r="F26" s="6" t="n"/>
+      <c r="G26" s="7" t="n"/>
+      <c r="H26" s="7" t="n"/>
     </row>
     <row r="27">
-      <c r="A27" s="5" t="inlineStr">
+      <c r="A27" s="7" t="inlineStr">
         <is>
           <t>871A7607</t>
         </is>
       </c>
-      <c r="B27" s="5" t="n"/>
-      <c r="C27" s="5" t="n"/>
-      <c r="D27" s="5" t="n"/>
-      <c r="E27" s="5" t="n"/>
-      <c r="F27" s="5" t="n"/>
-      <c r="G27" s="5" t="n"/>
-      <c r="H27" s="5" t="n"/>
+      <c r="B27" s="7" t="n"/>
+      <c r="C27" s="7" t="n"/>
+      <c r="D27" s="7" t="n"/>
+      <c r="E27" s="7" t="n"/>
+      <c r="F27" s="7" t="n"/>
+      <c r="G27" s="7" t="n"/>
+      <c r="H27" s="7" t="n"/>
     </row>
   </sheetData>
   <mergeCells count="36">
